--- a/EI 78/MODIFICARE_1052/CLASIFICATORUL_Serviciilor_Comert_International_Anexa_1_Instructiuni-1.xlsx
+++ b/EI 78/MODIFICARE_1052/CLASIFICATORUL_Serviciilor_Comert_International_Anexa_1_Instructiuni-1.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bns\EI 78\MODIFICARE_1052\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E5739-72AE-4E7F-A654-93D09173CC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F42D49-C6E0-4642-8376-6475C682E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clasificatorul_Serviciilor_CI" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="ORDINE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Clasificatorul_Serviciilor_CI!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25330,7 +25330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BD0C24-C296-43FA-A4CB-42C4FDD489A1}">
   <dimension ref="A1:D815"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
       <selection activeCell="B815" sqref="B815"/>
     </sheetView>
   </sheetViews>
